--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1ac35d35dabbdca3/Tài liệu/FAKENEWS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{806AD3EB-1B51-46E0-AA14-B0BBC84C94B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{806AD3EB-1B51-46E0-AA14-B0BBC84C94B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39AAF560-32E9-4AF6-998D-A5267216A0A6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E3B02224-3D7C-435A-8FEE-513553784CBC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Reviews</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>real</t>
+  </si>
+  <si>
+    <t>Việt Nam có 1 triệu bệnh nhân covid</t>
   </si>
 </sst>
 </file>
@@ -461,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4D076D-A400-4BDE-9E41-3C6E1939EF63}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,6 +579,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
